--- a/kosten_bestel.xlsx
+++ b/kosten_bestel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harmh\Documents\GitHub\Soft_Lure_Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8237A9-B5EE-49CE-92AB-A4EC2E0E3106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824A6EF9-ED43-48D4-861B-3904457FA7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69533F9C-AC0A-46C2-B6ED-EED1F4A98F59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69533F9C-AC0A-46C2-B6ED-EED1F4A98F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -217,17 +217,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -243,7 +242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -542,25 +541,25 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="51.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
@@ -570,19 +569,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="1">
         <f t="shared" ref="D2:D14" si="0" xml:space="preserve"> B2 *C2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>9.5</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -591,83 +593,86 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
-        <v>3</v>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>4.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1">
@@ -678,20 +683,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1">
@@ -702,7 +707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -711,13 +716,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -726,20 +731,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>75</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="1">
@@ -750,14 +755,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>1.5</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" s="1">
@@ -768,32 +773,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>15.63</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>31.26</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>140</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="1">
@@ -804,14 +809,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>30</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="1">
@@ -822,14 +827,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="1">
         <v>37</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="1">
@@ -840,14 +845,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>224</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="1">
@@ -858,38 +863,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="1">
         <v>165</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="1">
@@ -900,13 +905,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <f>SUM(D2:D24)</f>
-        <v>792.26</v>
+        <v>710.5</v>
       </c>
     </row>
   </sheetData>

--- a/kosten_bestel.xlsx
+++ b/kosten_bestel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Engineer\Documents\GitHub\Soft_Lure_Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824A6EF9-ED43-48D4-861B-3904457FA7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C220EDB-7B4F-44C1-9461-9DDB93E52583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69533F9C-AC0A-46C2-B6ED-EED1F4A98F59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="berekening" sheetId="1" r:id="rId1"/>
+    <sheet name="kosten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>material soft lures</t>
   </si>
@@ -156,6 +157,45 @@
   </si>
   <si>
     <t>brightbaits starter pakket</t>
+  </si>
+  <si>
+    <t>start pakket brightbaits</t>
+  </si>
+  <si>
+    <t>verzendkosten</t>
+  </si>
+  <si>
+    <t>grand total</t>
+  </si>
+  <si>
+    <t>worm oil</t>
+  </si>
+  <si>
+    <t>heat stabiliser</t>
+  </si>
+  <si>
+    <t>spoon set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masker </t>
+  </si>
+  <si>
+    <t>besteld bij:</t>
+  </si>
+  <si>
+    <t>Brightbaits.com</t>
+  </si>
+  <si>
+    <t>bestelling</t>
+  </si>
+  <si>
+    <t>https://bugmolds.com/</t>
+  </si>
+  <si>
+    <t>marktplaats</t>
+  </si>
+  <si>
+    <t>action</t>
   </si>
 </sst>
 </file>
@@ -541,7 +581,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,8 +788,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f xml:space="preserve"> B15 *C15</f>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -832,14 +871,14 @@
         <v>12</v>
       </c>
       <c r="B20" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f xml:space="preserve"> B20 B20*C20</f>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -911,7 +950,7 @@
       </c>
       <c r="D26" s="3">
         <f>SUM(D2:D24)</f>
-        <v>710.5</v>
+        <v>682.5</v>
       </c>
     </row>
   </sheetData>
@@ -923,4 +962,782 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB6C6E1-66DD-4BF6-937F-89725273B88F}">
+  <dimension ref="A1:I105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2+C2</f>
+        <v>177.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(D2:D63)</f>
+        <v>680.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D36" si="0">B3+C3</f>
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>135.25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50.82</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>186.07</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>215.82</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>215.82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>